--- a/Luban/Config/Datas/EnemySkillBase.xlsx
+++ b/Luban/Config/Datas/EnemySkillBase.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -105,19 +105,16 @@
     <t>int</t>
   </si>
   <si>
-    <t>(list#sep=,),string</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
     <t>SKILL.TYPE</t>
   </si>
   <si>
-    <t>(list#sep=|),Tb.SwordSkill.SkillFontValue</t>
-  </si>
-  <si>
-    <t>(array#sep=|),Tb.SwordSkill.SkillParamArray</t>
+    <t>Tb.SwordSkill.SkillFontValue</t>
+  </si>
+  <si>
+    <t>(list#sep=|),Tb.SwordSkill.SkillParamArray</t>
   </si>
   <si>
     <t>##</t>
@@ -144,58 +141,58 @@
     <t>技能执行参数</t>
   </si>
   <si>
-    <t>怒冲击!(1级),怒冲击!(2级),怒冲击!(3级),怒冲击!(4级),怒冲击!(5级),怒冲击!(6级),怒冲击!(7级),怒冲击!(8级),怒冲击!(9级),怒冲击!(10级),进阶怒冲击!(11级),进阶怒冲击!(12级),进阶怒冲击!(12级),进阶怒冲击!(13级),进阶怒冲击!(14级),进阶怒冲击!(15级),高级怒冲击!(16级),高级怒冲击!(17级),高级怒冲击!(18级),怒冲击!专精(19级),怒冲击!专精(20级),怒冲击!大师(21级)</t>
+    <t>怒冲击!(1级)</t>
   </si>
   <si>
     <t>Skill_Icon_6</t>
   </si>
   <si>
-    <t>技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0},技能攻击力{0}</t>
+    <t>技能攻击力{0}</t>
   </si>
   <si>
     <t>Close_Combat</t>
   </si>
   <si>
-    <t>0,1,1|10,1,1|0,1,1|0,1,1|0,1,1|0,1,1|0,1,1|0,1,1|0,1,1|0,1,1|0,1,1|0,1,1|0,1,1|0,1,1|200,1,1|199,1,1|20,3,1|50,3,1|50,3,1|100,3,1|0,3,1</t>
-  </si>
-  <si>
-    <t>3,100,FALSE,0|3,110,FALSE,0|3,120,FALSE,0|3,130,FALSE,0|3,100,FALSE,0|3,140,FALSE,0|3,150,FALSE,0|3,160,FALSE,0|3,170,FALSE,0|3,180,FALSE,0|3,190,FALSE,0|3,200,FALSE,0|3,210,FALSE,0|3,220,FALSE,0|3,230,FALSE,0|3,240,FALSE,0|3,250,FALSE,0|3,260,FALSE,0|3,270,FALSE,0|3,280,FALSE,0|3,290,FALSE,0</t>
-  </si>
-  <si>
-    <t>九阳真气(1级),九阳真气(2级),九阳真气(3级),九阳真气(4级),九阳真气(5级),九阳真气(6级),九阳真气(7级),九阳真气(8级),九阳真气(9级),九阳真气(10级),进阶九阳真气(11级),进阶九阳真气(12级),进阶九阳真气(12级),进阶九阳真气(13级),进阶九阳真气(14级),进阶九阳真气(15级),高级九阳真气(16级),高级九阳真气(17级),高级九阳真气(18级),九阳真气专精(19级),九阳真气专精(20级),九阳真气大师(21级)</t>
+    <t>0,1,1</t>
+  </si>
+  <si>
+    <t>3,100,FALSE,0|4,20,FALSE,0</t>
+  </si>
+  <si>
+    <t>九阳邪气(1级)</t>
   </si>
   <si>
     <t>Skill_Icon_7</t>
   </si>
   <si>
-    <t>生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0},生命{0}</t>
+    <t>生命{0}</t>
   </si>
   <si>
     <t>SUBSIDIARY</t>
   </si>
   <si>
-    <t>0,5,1|10,5,1|20,5,1|0,5,1|20,5,1|40,5,1|50,5,1|0,5,1|0,5,1|60,5,1|0,5,1|100,5,1|0,5,1|0,5,1|200,5,1|199,5,1|20,5,1|50,5,1|50,5,1|100,5,1|0,5,1</t>
-  </si>
-  <si>
-    <t>1,100,FALSE,4|1,110,FALSE,4|1,120,FALSE,4|1,110,FALSE,4|1,100,FALSE,4|1,140,FALSE,4|1,150,FALSE,4|1,160,FALSE,4|1,170,FALSE,4|1,180,FALSE,4|1,190,FALSE,4|1,200,FALSE,4|1,210,FALSE,4|1,220,FALSE,4|1,210,FALSE,4|1,240,FALSE,4|1,250,FALSE,4|1,260,FALSE,4|1,270,FALSE,4|1,280,FALSE,4|1,290,FALSE,4</t>
-  </si>
-  <si>
-    <t>剑刃先攻(1级),剑刃先攻(2级),剑刃先攻(3级),剑刃先攻(4级),剑刃先攻(5级),剑刃先攻(6级),剑刃先攻(7级),剑刃先攻(8级),剑刃先攻(9级),剑刃先攻(10级),剑刃先攻(11级),剑刃先攻(12级),剑刃先攻(12级),剑刃先攻(13级),剑刃先攻(14级),剑刃先攻(15级),剑刃先攻(16级),剑刃先攻(17级),剑刃先攻(18级),剑刃先攻(19级),剑刃先攻(20级),剑刃先攻(21级)</t>
+    <t>0,5,1</t>
+  </si>
+  <si>
+    <t>1,100,FALSE,4</t>
+  </si>
+  <si>
+    <t>魔天斩!(1级)</t>
   </si>
   <si>
     <t>Skill_Icon_8</t>
   </si>
   <si>
-    <t>近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0},近战防御力{0}</t>
+    <t>近战防御力{0}</t>
   </si>
   <si>
     <t>SwordType</t>
   </si>
   <si>
-    <t>0,3,1|10,3,1|20,3,1|0,3,1|20,3,1|40,3,1|50,3,1|0,3,1|0,3,1|60,3,1|0,3,1|100,3,1|0,3,1|0,3,1|200,3,1|199,3,1|20,3,1|50,3,1|50,3,1|100,3,1|0,3,1</t>
-  </si>
-  <si>
-    <t>5,-100,FALSE,0|5,-110,FALSE,0|5,-120,FALSE,0|5,-140,FALSE,0|5,-800,FALSE,0|5,-140,FALSE,0|5,-150,FALSE,0|5,-160,FALSE,0|5,-170,FALSE,0|5,-180,FALSE,0|5,-190,FALSE,0|5,-200,FALSE,0|5,-210,FALSE,0|5,-220,FALSE,0|5,-210,FALSE,0|5,-240,FALSE,0|5,-250,FALSE,0|5,-260,FALSE,0|5,-270,FALSE,0|5,-280,FALSE,0|5,-290,FALSE,0</t>
+    <t>0,3,1</t>
+  </si>
+  <si>
+    <t>5,-100,FALSE,0</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1302,7 @@
   <dimension ref="A1:Z230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1376,19 +1373,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -1411,28 +1408,28 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:26">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -1459,22 +1456,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:8">
@@ -1483,22 +1480,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:8">
@@ -1507,22 +1504,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="4:7">

--- a/Luban/Config/Datas/EnemySkillBase.xlsx
+++ b/Luban/Config/Datas/EnemySkillBase.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -153,7 +153,7 @@
     <t>Close_Combat</t>
   </si>
   <si>
-    <t>0,1,1</t>
+    <t>0,3,1,1</t>
   </si>
   <si>
     <t>3,100,FALSE,0|4,20,FALSE,0</t>
@@ -171,7 +171,7 @@
     <t>SUBSIDIARY</t>
   </si>
   <si>
-    <t>0,5,1</t>
+    <t>0,2,3,1</t>
   </si>
   <si>
     <t>1,100,FALSE,4</t>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>SwordType</t>
-  </si>
-  <si>
-    <t>0,3,1</t>
   </si>
   <si>
     <t>5,-100,FALSE,0</t>
@@ -378,12 +375,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1302,7 +1299,7 @@
   <dimension ref="A1:Z230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1516,10 +1513,10 @@
         <v>37</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="4:7">

--- a/Luban/Config/Datas/EnemySkillBase.xlsx
+++ b/Luban/Config/Datas/EnemySkillBase.xlsx
@@ -28,7 +28,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
+          <t xml:space="preserve">Administrator:
+</t>
         </r>
         <r>
           <rPr>
@@ -36,10 +37,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-第一个表示MP消耗
-第二个表示目标范围
-第三个表示持续回合</t>
+          <t xml:space="preserve">第一个表示MP消耗
+第二个表示目标方向
+第三个表示范围
+第四个表示持续回合
+</t>
         </r>
       </text>
     </comment>
@@ -61,10 +63,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-第一个表示属性值类型
-第二个表示数值
-第三个表示是否是百分比
-第四个表示附加的BUFFID</t>
+第一个表示技能目标,如果是0则采用技能前置的目标参数
+第二个表示技能范围值,如果是0则采用技能前置的范围参数
+第三个表示属性值类型
+第四个表示数值
+第五个表示是否是百分比
+第六个表示附加的BUFFID</t>
         </r>
       </text>
     </comment>
@@ -114,7 +118,7 @@
     <t>Tb.SwordSkill.SkillFontValue</t>
   </si>
   <si>
-    <t>(list#sep=|),Tb.SwordSkill.SkillParamArray</t>
+    <t>Tb.EnemySkill.SkillParamArray</t>
   </si>
   <si>
     <t>##</t>
@@ -156,7 +160,7 @@
     <t>0,3,1,1</t>
   </si>
   <si>
-    <t>3,100,FALSE,0|4,20,FALSE,0</t>
+    <t>4-0-3-100-FALSE-0</t>
   </si>
   <si>
     <t>九阳邪气(1级)</t>
@@ -171,10 +175,10 @@
     <t>SUBSIDIARY</t>
   </si>
   <si>
-    <t>0,2,3,1</t>
-  </si>
-  <si>
-    <t>1,100,FALSE,4</t>
+    <t>0,4,0,1</t>
+  </si>
+  <si>
+    <t>0-0-1-100-FALSE-4</t>
   </si>
   <si>
     <t>魔天斩!(1级)</t>
@@ -189,7 +193,7 @@
     <t>SwordType</t>
   </si>
   <si>
-    <t>5,-100,FALSE,0</t>
+    <t>0-0-0--100-FALSE-0</t>
   </si>
 </sst>
 </file>
@@ -375,12 +379,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1299,7 +1303,7 @@
   <dimension ref="A1:Z230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Luban/Config/Datas/EnemySkillBase.xlsx
+++ b/Luban/Config/Datas/EnemySkillBase.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,15 +50,14 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">第一个表示MP消耗
+          <t>第一个表示MP消耗
 第二个表示目标方向
 第三个表示范围
-第四个表示持续回合
-</t>
+第四个表示持续回合</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -91,6 +103,9 @@
     <t>Icon</t>
   </si>
   <si>
+    <t>VFXID</t>
+  </si>
+  <si>
     <t>Des</t>
   </si>
   <si>
@@ -133,6 +148,9 @@
     <t>图标</t>
   </si>
   <si>
+    <t>技能特效ID</t>
+  </si>
+  <si>
     <t>技能描述</t>
   </si>
   <si>
@@ -194,12 +212,39 @@
   </si>
   <si>
     <t>0-0-0--100-FALSE-0</t>
+  </si>
+  <si>
+    <t>狂猛撕咬!(1级)</t>
+  </si>
+  <si>
+    <t>0,3,2,1</t>
+  </si>
+  <si>
+    <t>毒爪(1级)</t>
+  </si>
+  <si>
+    <t>斩首(1级)</t>
+  </si>
+  <si>
+    <t>漫天箭雨(1级)</t>
+  </si>
+  <si>
+    <t>Ranged_Combat</t>
+  </si>
+  <si>
+    <t>黑洞湮灭(1级)</t>
+  </si>
+  <si>
+    <t>Magic_Attack</t>
+  </si>
+  <si>
+    <t>雷暴术(1级)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1300,26 +1345,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z230"/>
+  <dimension ref="A1:AA230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.175" customWidth="1"/>
-    <col min="2" max="2" width="8.50833333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.3416666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.675" customWidth="1"/>
-    <col min="5" max="5" width="40.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.0083333333333" customWidth="1"/>
-    <col min="7" max="8" width="40.6333333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.5083333333333" customWidth="1"/>
-    <col min="10" max="11" width="40.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.17592592592593" customWidth="1"/>
+    <col min="2" max="2" width="8.50925925925926" customWidth="1"/>
+    <col min="3" max="3" width="10.3425925925926" customWidth="1"/>
+    <col min="4" max="4" width="10.6759259259259" customWidth="1"/>
+    <col min="5" max="6" width="40.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
+    <col min="8" max="9" width="40.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="14.5092592592593" customWidth="1"/>
+    <col min="11" max="12" width="40.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:26">
+    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1389,9 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1"/>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -1362,19 +1409,20 @@
       <c r="X1"/>
       <c r="Y1"/>
       <c r="Z1"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:26">
+      <c r="AA1"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>10</v>
@@ -1388,7 +1436,9 @@
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2"/>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1406,33 +1456,36 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:26">
+      <c r="AA2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3"/>
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1450,1422 +1503,1776 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-    </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:8">
+      <c r="AA3"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:9">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="H4" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H5" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:9">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>26</v>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="4:7">
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="4:7">
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="4:7">
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="4:7">
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="4:7">
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="4:7">
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="4:7">
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="18.5" customHeight="1" spans="1:9">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="4:7">
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="4:8">
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="4:7">
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="4:8">
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="4:7">
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="4:8">
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="4:7">
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="4:8">
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="4:7">
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="4:8">
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="4:7">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="4:8">
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="4:7">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="4:8">
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="4:7">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="4:8">
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="4:7">
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="4:8">
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="4:7">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="4:8">
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="4:7">
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="4:8">
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="4:7">
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="4:8">
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="4:7">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="4:8">
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="4:7">
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="4:8">
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="4:7">
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="4:8">
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="4:7">
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="4:8">
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="4:7">
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="4:8">
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="4:7">
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="4:8">
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="4:7">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="4:8">
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="4:7">
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="4:8">
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="4:7">
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="4:8">
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="4:7">
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="4:8">
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="4:7">
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="4:8">
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="4:7">
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="4:8">
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="4:7">
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="4:8">
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="4:7">
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="4:8">
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="4:7">
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="4:8">
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="4:7">
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="4:8">
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="4:7">
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="4:8">
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="4:7">
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="4:8">
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="4:7">
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="4:8">
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="4:7">
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="4:8">
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="4:7">
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="4:8">
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="4:7">
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="4:8">
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="4:7">
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="4:8">
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="4:7">
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="4:8">
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="4:7">
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="4:8">
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="4:7">
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="4:8">
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="4:7">
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="4:8">
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="4:7">
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="4:8">
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="4:7">
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="4:8">
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="4:7">
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="4:8">
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="4:7">
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="4:8">
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="4:7">
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="4:8">
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="4:7">
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="4:8">
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
-    </row>
-    <row r="59" spans="4:7">
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="4:8">
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="4:7">
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="4:8">
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
-    </row>
-    <row r="61" spans="4:7">
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="4:8">
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="4:7">
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="4:8">
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="4:7">
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="4:8">
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
-    </row>
-    <row r="64" spans="4:7">
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="4:8">
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="4:7">
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="4:8">
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="4:7">
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="4:8">
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="4:7">
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="4:8">
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="4:7">
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="4:8">
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="4:7">
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="4:8">
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="4:7">
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="4:8">
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="4:7">
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="4:8">
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="4:7">
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="4:8">
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="4:7">
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="4:8">
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-    </row>
-    <row r="74" spans="4:7">
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="4:8">
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="4:7">
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="4:8">
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
-    </row>
-    <row r="76" spans="4:7">
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="4:8">
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
-    </row>
-    <row r="77" spans="4:7">
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="4:8">
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="4:7">
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="4:8">
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
-    </row>
-    <row r="79" spans="4:7">
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="4:8">
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
-    </row>
-    <row r="80" spans="4:7">
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="4:8">
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="4:7">
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="4:8">
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
-    </row>
-    <row r="82" spans="4:7">
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="4:8">
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
-    </row>
-    <row r="83" spans="4:7">
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="4:8">
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
-    </row>
-    <row r="84" spans="4:7">
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="4:8">
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
-    </row>
-    <row r="85" spans="4:7">
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="4:8">
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="4:7">
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="4:8">
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
-    </row>
-    <row r="87" spans="4:7">
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="4:8">
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
-    </row>
-    <row r="88" spans="4:7">
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="4:8">
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
-    </row>
-    <row r="89" spans="4:7">
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="4:8">
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
-    </row>
-    <row r="90" spans="4:7">
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="4:8">
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
-    </row>
-    <row r="91" spans="4:7">
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="4:8">
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
-    </row>
-    <row r="92" spans="4:7">
+      <c r="H91" s="12"/>
+    </row>
+    <row r="92" spans="4:8">
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
-    </row>
-    <row r="93" spans="4:7">
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="4:8">
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
-    </row>
-    <row r="94" spans="4:7">
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="4:8">
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
-    </row>
-    <row r="95" spans="4:7">
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="4:8">
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
-    </row>
-    <row r="96" spans="4:7">
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="4:8">
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
-    </row>
-    <row r="97" spans="4:7">
+      <c r="H96" s="12"/>
+    </row>
+    <row r="97" spans="4:8">
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
-    </row>
-    <row r="98" spans="4:7">
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" spans="4:8">
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
-    </row>
-    <row r="99" spans="4:7">
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="4:8">
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
-    </row>
-    <row r="100" spans="4:7">
+      <c r="H99" s="12"/>
+    </row>
+    <row r="100" spans="4:8">
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
-    </row>
-    <row r="101" spans="4:7">
+      <c r="H100" s="12"/>
+    </row>
+    <row r="101" spans="4:8">
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
-    </row>
-    <row r="102" spans="4:7">
+      <c r="H101" s="12"/>
+    </row>
+    <row r="102" spans="4:8">
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
-    </row>
-    <row r="103" spans="4:7">
+      <c r="H102" s="12"/>
+    </row>
+    <row r="103" spans="4:8">
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
-    </row>
-    <row r="104" spans="4:7">
+      <c r="H103" s="12"/>
+    </row>
+    <row r="104" spans="4:8">
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="4:7">
+      <c r="H104" s="12"/>
+    </row>
+    <row r="105" spans="4:8">
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
-    </row>
-    <row r="106" spans="4:7">
+      <c r="H105" s="12"/>
+    </row>
+    <row r="106" spans="4:8">
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
-    </row>
-    <row r="107" spans="4:7">
+      <c r="H106" s="12"/>
+    </row>
+    <row r="107" spans="4:8">
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
-    </row>
-    <row r="108" spans="4:7">
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="4:8">
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
-    </row>
-    <row r="109" spans="4:7">
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="4:8">
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
-    </row>
-    <row r="110" spans="4:7">
+      <c r="H109" s="12"/>
+    </row>
+    <row r="110" spans="4:8">
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
-    </row>
-    <row r="111" spans="4:7">
+      <c r="H110" s="12"/>
+    </row>
+    <row r="111" spans="4:8">
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
-    </row>
-    <row r="112" spans="4:7">
+      <c r="H111" s="12"/>
+    </row>
+    <row r="112" spans="4:8">
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
-    </row>
-    <row r="113" spans="4:7">
+      <c r="H112" s="12"/>
+    </row>
+    <row r="113" spans="4:8">
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
-    </row>
-    <row r="114" spans="4:7">
+      <c r="H113" s="12"/>
+    </row>
+    <row r="114" spans="4:8">
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
-    </row>
-    <row r="115" spans="4:7">
+      <c r="H114" s="12"/>
+    </row>
+    <row r="115" spans="4:8">
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
-    </row>
-    <row r="116" spans="4:7">
+      <c r="H115" s="12"/>
+    </row>
+    <row r="116" spans="4:8">
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
-    </row>
-    <row r="117" spans="4:7">
+      <c r="H116" s="12"/>
+    </row>
+    <row r="117" spans="4:8">
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
-    </row>
-    <row r="118" spans="4:7">
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="4:8">
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
-    </row>
-    <row r="119" spans="4:7">
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" spans="4:8">
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
-    </row>
-    <row r="120" spans="4:7">
+      <c r="H119" s="12"/>
+    </row>
+    <row r="120" spans="4:8">
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
-    </row>
-    <row r="121" spans="4:7">
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="4:8">
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
-    </row>
-    <row r="122" spans="4:7">
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="4:8">
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
-    </row>
-    <row r="123" spans="4:7">
+      <c r="H122" s="12"/>
+    </row>
+    <row r="123" spans="4:8">
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
-    </row>
-    <row r="124" spans="4:7">
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="4:8">
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
-    </row>
-    <row r="125" spans="4:7">
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="4:8">
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
-    </row>
-    <row r="126" spans="4:7">
+      <c r="H125" s="12"/>
+    </row>
+    <row r="126" spans="4:8">
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
-    </row>
-    <row r="127" spans="4:7">
+      <c r="H126" s="12"/>
+    </row>
+    <row r="127" spans="4:8">
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
-    </row>
-    <row r="128" spans="4:7">
+      <c r="H127" s="12"/>
+    </row>
+    <row r="128" spans="4:8">
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
-    </row>
-    <row r="129" spans="4:7">
+      <c r="H128" s="12"/>
+    </row>
+    <row r="129" spans="4:8">
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
-    </row>
-    <row r="130" spans="4:7">
+      <c r="H129" s="12"/>
+    </row>
+    <row r="130" spans="4:8">
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
-    </row>
-    <row r="131" spans="4:7">
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="4:8">
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
-    </row>
-    <row r="132" spans="4:7">
+      <c r="H131" s="12"/>
+    </row>
+    <row r="132" spans="4:8">
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
-    </row>
-    <row r="133" spans="4:7">
+      <c r="H132" s="12"/>
+    </row>
+    <row r="133" spans="4:8">
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
-    </row>
-    <row r="134" spans="4:7">
+      <c r="H133" s="12"/>
+    </row>
+    <row r="134" spans="4:8">
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
-    </row>
-    <row r="135" spans="4:7">
+      <c r="H134" s="12"/>
+    </row>
+    <row r="135" spans="4:8">
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
-    </row>
-    <row r="136" spans="4:7">
+      <c r="H135" s="12"/>
+    </row>
+    <row r="136" spans="4:8">
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
-    </row>
-    <row r="137" spans="4:7">
+      <c r="H136" s="12"/>
+    </row>
+    <row r="137" spans="4:8">
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
-    </row>
-    <row r="138" spans="4:7">
+      <c r="H137" s="12"/>
+    </row>
+    <row r="138" spans="4:8">
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
-    </row>
-    <row r="139" spans="4:7">
+      <c r="H138" s="12"/>
+    </row>
+    <row r="139" spans="4:8">
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
-    </row>
-    <row r="140" spans="4:7">
+      <c r="H139" s="12"/>
+    </row>
+    <row r="140" spans="4:8">
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
-    </row>
-    <row r="141" spans="4:7">
+      <c r="H140" s="12"/>
+    </row>
+    <row r="141" spans="4:8">
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
-    </row>
-    <row r="142" spans="4:7">
+      <c r="H141" s="12"/>
+    </row>
+    <row r="142" spans="4:8">
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
-    </row>
-    <row r="143" spans="4:7">
+      <c r="H142" s="12"/>
+    </row>
+    <row r="143" spans="4:8">
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
-    </row>
-    <row r="144" spans="4:7">
+      <c r="H143" s="12"/>
+    </row>
+    <row r="144" spans="4:8">
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
-    </row>
-    <row r="145" spans="4:7">
+      <c r="H144" s="12"/>
+    </row>
+    <row r="145" spans="4:8">
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
-    </row>
-    <row r="146" spans="4:7">
+      <c r="H145" s="12"/>
+    </row>
+    <row r="146" spans="4:8">
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
-    </row>
-    <row r="147" spans="4:7">
+      <c r="H146" s="12"/>
+    </row>
+    <row r="147" spans="4:8">
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
-    </row>
-    <row r="148" spans="4:7">
+      <c r="H147" s="12"/>
+    </row>
+    <row r="148" spans="4:8">
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
-    </row>
-    <row r="149" spans="4:7">
+      <c r="H148" s="12"/>
+    </row>
+    <row r="149" spans="4:8">
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
-    </row>
-    <row r="150" spans="4:7">
+      <c r="H149" s="12"/>
+    </row>
+    <row r="150" spans="4:8">
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
-    </row>
-    <row r="151" spans="4:7">
+      <c r="H150" s="12"/>
+    </row>
+    <row r="151" spans="4:8">
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
-    </row>
-    <row r="152" spans="4:7">
+      <c r="H151" s="12"/>
+    </row>
+    <row r="152" spans="4:8">
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
-    </row>
-    <row r="153" spans="4:7">
+      <c r="H152" s="12"/>
+    </row>
+    <row r="153" spans="4:8">
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
-    </row>
-    <row r="154" spans="4:7">
+      <c r="H153" s="12"/>
+    </row>
+    <row r="154" spans="4:8">
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
-    </row>
-    <row r="155" spans="4:7">
+      <c r="H154" s="12"/>
+    </row>
+    <row r="155" spans="4:8">
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
-    </row>
-    <row r="156" spans="4:7">
+      <c r="H155" s="12"/>
+    </row>
+    <row r="156" spans="4:8">
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
-    </row>
-    <row r="157" spans="4:7">
+      <c r="H156" s="12"/>
+    </row>
+    <row r="157" spans="4:8">
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
-    </row>
-    <row r="158" spans="4:7">
+      <c r="H157" s="12"/>
+    </row>
+    <row r="158" spans="4:8">
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
-    </row>
-    <row r="159" spans="4:7">
+      <c r="H158" s="12"/>
+    </row>
+    <row r="159" spans="4:8">
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
-    </row>
-    <row r="160" spans="4:7">
+      <c r="H159" s="12"/>
+    </row>
+    <row r="160" spans="4:8">
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
-    </row>
-    <row r="161" spans="4:7">
+      <c r="H160" s="12"/>
+    </row>
+    <row r="161" spans="4:8">
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
-    </row>
-    <row r="162" spans="4:7">
+      <c r="H161" s="12"/>
+    </row>
+    <row r="162" spans="4:8">
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
-    </row>
-    <row r="163" spans="4:7">
+      <c r="H162" s="12"/>
+    </row>
+    <row r="163" spans="4:8">
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
-    </row>
-    <row r="164" spans="4:7">
+      <c r="H163" s="12"/>
+    </row>
+    <row r="164" spans="4:8">
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
-    </row>
-    <row r="165" spans="4:7">
+      <c r="H164" s="12"/>
+    </row>
+    <row r="165" spans="4:8">
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
-    </row>
-    <row r="166" spans="4:7">
+      <c r="H165" s="12"/>
+    </row>
+    <row r="166" spans="4:8">
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
-    </row>
-    <row r="167" spans="4:7">
+      <c r="H166" s="12"/>
+    </row>
+    <row r="167" spans="4:8">
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
-    </row>
-    <row r="168" spans="4:7">
+      <c r="H167" s="12"/>
+    </row>
+    <row r="168" spans="4:8">
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
-    </row>
-    <row r="169" spans="4:7">
+      <c r="H168" s="12"/>
+    </row>
+    <row r="169" spans="4:8">
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
-    </row>
-    <row r="170" spans="4:7">
+      <c r="H169" s="12"/>
+    </row>
+    <row r="170" spans="4:8">
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
-    </row>
-    <row r="171" spans="4:7">
+      <c r="H170" s="12"/>
+    </row>
+    <row r="171" spans="4:8">
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
-    </row>
-    <row r="172" spans="4:7">
+      <c r="H171" s="12"/>
+    </row>
+    <row r="172" spans="4:8">
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
-    </row>
-    <row r="173" spans="4:7">
+      <c r="H172" s="12"/>
+    </row>
+    <row r="173" spans="4:8">
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
-    </row>
-    <row r="174" spans="4:7">
+      <c r="H173" s="12"/>
+    </row>
+    <row r="174" spans="4:8">
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
-    </row>
-    <row r="175" spans="4:7">
+      <c r="H174" s="12"/>
+    </row>
+    <row r="175" spans="4:8">
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
-    </row>
-    <row r="176" spans="4:7">
+      <c r="H175" s="12"/>
+    </row>
+    <row r="176" spans="4:8">
       <c r="D176" s="12"/>
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
-    </row>
-    <row r="177" spans="4:7">
+      <c r="H176" s="12"/>
+    </row>
+    <row r="177" spans="4:8">
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
-    </row>
-    <row r="178" spans="4:7">
+      <c r="H177" s="12"/>
+    </row>
+    <row r="178" spans="4:8">
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
-    </row>
-    <row r="179" spans="4:7">
+      <c r="H178" s="12"/>
+    </row>
+    <row r="179" spans="4:8">
       <c r="D179" s="12"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
-    </row>
-    <row r="180" spans="4:7">
+      <c r="H179" s="12"/>
+    </row>
+    <row r="180" spans="4:8">
       <c r="D180" s="12"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
-    </row>
-    <row r="181" spans="4:7">
+      <c r="H180" s="12"/>
+    </row>
+    <row r="181" spans="4:8">
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
-    </row>
-    <row r="182" spans="4:7">
+      <c r="H181" s="12"/>
+    </row>
+    <row r="182" spans="4:8">
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
-    </row>
-    <row r="183" spans="4:7">
+      <c r="H182" s="12"/>
+    </row>
+    <row r="183" spans="4:8">
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
-    </row>
-    <row r="184" spans="4:7">
+      <c r="H183" s="12"/>
+    </row>
+    <row r="184" spans="4:8">
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
-    </row>
-    <row r="185" spans="4:7">
+      <c r="H184" s="12"/>
+    </row>
+    <row r="185" spans="4:8">
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
-    </row>
-    <row r="186" spans="4:7">
+      <c r="H185" s="12"/>
+    </row>
+    <row r="186" spans="4:8">
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
-    </row>
-    <row r="187" spans="4:7">
+      <c r="H186" s="12"/>
+    </row>
+    <row r="187" spans="4:8">
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
-    </row>
-    <row r="188" spans="4:7">
+      <c r="H187" s="12"/>
+    </row>
+    <row r="188" spans="4:8">
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
-    </row>
-    <row r="189" spans="4:7">
+      <c r="H188" s="12"/>
+    </row>
+    <row r="189" spans="4:8">
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
-    </row>
-    <row r="190" spans="4:7">
+      <c r="H189" s="12"/>
+    </row>
+    <row r="190" spans="4:8">
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
-    </row>
-    <row r="191" spans="4:7">
+      <c r="H190" s="12"/>
+    </row>
+    <row r="191" spans="4:8">
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
-    </row>
-    <row r="192" spans="4:7">
+      <c r="H191" s="12"/>
+    </row>
+    <row r="192" spans="4:8">
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
-    </row>
-    <row r="193" spans="4:7">
+      <c r="H192" s="12"/>
+    </row>
+    <row r="193" spans="4:8">
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
-    </row>
-    <row r="194" spans="4:7">
+      <c r="H193" s="12"/>
+    </row>
+    <row r="194" spans="4:8">
       <c r="D194" s="12"/>
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
-    </row>
-    <row r="195" spans="4:7">
+      <c r="H194" s="12"/>
+    </row>
+    <row r="195" spans="4:8">
       <c r="D195" s="12"/>
       <c r="E195" s="12"/>
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
-    </row>
-    <row r="196" spans="4:7">
+      <c r="H195" s="12"/>
+    </row>
+    <row r="196" spans="4:8">
       <c r="D196" s="12"/>
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
-    </row>
-    <row r="197" spans="4:7">
+      <c r="H196" s="12"/>
+    </row>
+    <row r="197" spans="4:8">
       <c r="D197" s="12"/>
       <c r="E197" s="12"/>
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
-    </row>
-    <row r="198" spans="4:7">
+      <c r="H197" s="12"/>
+    </row>
+    <row r="198" spans="4:8">
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
-    </row>
-    <row r="199" spans="4:7">
+      <c r="H198" s="12"/>
+    </row>
+    <row r="199" spans="4:8">
       <c r="D199" s="12"/>
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
       <c r="G199" s="12"/>
-    </row>
-    <row r="200" spans="4:7">
+      <c r="H199" s="12"/>
+    </row>
+    <row r="200" spans="4:8">
       <c r="D200" s="12"/>
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
-    </row>
-    <row r="201" spans="4:7">
+      <c r="H200" s="12"/>
+    </row>
+    <row r="201" spans="4:8">
       <c r="D201" s="12"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
-    </row>
-    <row r="202" spans="4:7">
+      <c r="H201" s="12"/>
+    </row>
+    <row r="202" spans="4:8">
       <c r="D202" s="12"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
-    </row>
-    <row r="203" spans="4:7">
+      <c r="H202" s="12"/>
+    </row>
+    <row r="203" spans="4:8">
       <c r="D203" s="12"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
-    </row>
-    <row r="204" spans="4:7">
+      <c r="H203" s="12"/>
+    </row>
+    <row r="204" spans="4:8">
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
-    </row>
-    <row r="205" spans="4:7">
+      <c r="H204" s="12"/>
+    </row>
+    <row r="205" spans="4:8">
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
-    </row>
-    <row r="206" spans="4:7">
+      <c r="H205" s="12"/>
+    </row>
+    <row r="206" spans="4:8">
       <c r="D206" s="12"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
-    </row>
-    <row r="207" spans="4:7">
+      <c r="H206" s="12"/>
+    </row>
+    <row r="207" spans="4:8">
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
-    </row>
-    <row r="208" spans="4:7">
+      <c r="H207" s="12"/>
+    </row>
+    <row r="208" spans="4:8">
       <c r="D208" s="12"/>
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
-    </row>
-    <row r="209" spans="4:7">
+      <c r="H208" s="12"/>
+    </row>
+    <row r="209" spans="4:8">
       <c r="D209" s="12"/>
       <c r="E209" s="12"/>
       <c r="F209" s="12"/>
       <c r="G209" s="12"/>
-    </row>
-    <row r="210" spans="4:7">
+      <c r="H209" s="12"/>
+    </row>
+    <row r="210" spans="4:8">
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
-    </row>
-    <row r="211" spans="4:7">
+      <c r="H210" s="12"/>
+    </row>
+    <row r="211" spans="4:8">
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
-    </row>
-    <row r="212" spans="4:7">
+      <c r="H211" s="12"/>
+    </row>
+    <row r="212" spans="4:8">
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
-    </row>
-    <row r="213" spans="4:7">
+      <c r="H212" s="12"/>
+    </row>
+    <row r="213" spans="4:8">
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
       <c r="G213" s="12"/>
-    </row>
-    <row r="214" spans="4:7">
+      <c r="H213" s="12"/>
+    </row>
+    <row r="214" spans="4:8">
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
       <c r="G214" s="12"/>
-    </row>
-    <row r="215" spans="4:7">
+      <c r="H214" s="12"/>
+    </row>
+    <row r="215" spans="4:8">
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
       <c r="G215" s="12"/>
-    </row>
-    <row r="216" spans="4:7">
+      <c r="H215" s="12"/>
+    </row>
+    <row r="216" spans="4:8">
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
       <c r="G216" s="12"/>
-    </row>
-    <row r="217" spans="4:7">
+      <c r="H216" s="12"/>
+    </row>
+    <row r="217" spans="4:8">
       <c r="D217" s="12"/>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
       <c r="G217" s="12"/>
-    </row>
-    <row r="218" spans="4:7">
+      <c r="H217" s="12"/>
+    </row>
+    <row r="218" spans="4:8">
       <c r="D218" s="12"/>
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
       <c r="G218" s="12"/>
-    </row>
-    <row r="219" spans="4:7">
+      <c r="H218" s="12"/>
+    </row>
+    <row r="219" spans="4:8">
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
       <c r="G219" s="12"/>
-    </row>
-    <row r="220" spans="4:7">
+      <c r="H219" s="12"/>
+    </row>
+    <row r="220" spans="4:8">
       <c r="D220" s="12"/>
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
-    </row>
-    <row r="221" spans="4:7">
+      <c r="H220" s="12"/>
+    </row>
+    <row r="221" spans="4:8">
       <c r="D221" s="12"/>
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
       <c r="G221" s="12"/>
-    </row>
-    <row r="222" spans="4:7">
+      <c r="H221" s="12"/>
+    </row>
+    <row r="222" spans="4:8">
       <c r="D222" s="12"/>
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
       <c r="G222" s="12"/>
-    </row>
-    <row r="223" spans="4:7">
+      <c r="H222" s="12"/>
+    </row>
+    <row r="223" spans="4:8">
       <c r="D223" s="12"/>
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
-    </row>
-    <row r="224" spans="4:7">
+      <c r="H223" s="12"/>
+    </row>
+    <row r="224" spans="4:8">
       <c r="D224" s="12"/>
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
-    </row>
-    <row r="225" spans="4:7">
+      <c r="H224" s="12"/>
+    </row>
+    <row r="225" spans="4:8">
       <c r="D225" s="12"/>
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
-    </row>
-    <row r="226" spans="4:7">
+      <c r="H225" s="12"/>
+    </row>
+    <row r="226" spans="4:8">
       <c r="D226" s="12"/>
       <c r="E226" s="12"/>
       <c r="F226" s="12"/>
       <c r="G226" s="12"/>
-    </row>
-    <row r="227" spans="4:7">
+      <c r="H226" s="12"/>
+    </row>
+    <row r="227" spans="4:8">
       <c r="D227" s="12"/>
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
       <c r="G227" s="12"/>
-    </row>
-    <row r="228" spans="4:7">
+      <c r="H227" s="12"/>
+    </row>
+    <row r="228" spans="4:8">
       <c r="D228" s="12"/>
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
       <c r="G228" s="12"/>
-    </row>
-    <row r="229" spans="4:7">
+      <c r="H228" s="12"/>
+    </row>
+    <row r="229" spans="4:8">
       <c r="D229" s="12"/>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
       <c r="G229" s="12"/>
-    </row>
-    <row r="230" spans="4:7">
+      <c r="H229" s="12"/>
+    </row>
+    <row r="230" spans="4:8">
       <c r="D230" s="12"/>
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
       <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
